--- a/Results/ALL_RESULTS.xlsx
+++ b/Results/ALL_RESULTS.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis-don-pbs\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F888003-C960-4269-8CCD-7EDB2598AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0300DB6-4668-4F5C-B329-472B38A6AB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SE1" sheetId="1" r:id="rId1"/>
-    <sheet name="SE2" sheetId="3" r:id="rId2"/>
-    <sheet name="SE3" sheetId="2" r:id="rId3"/>
-    <sheet name="DE1" sheetId="4" r:id="rId4"/>
+    <sheet name="SE_0" sheetId="5" r:id="rId1"/>
+    <sheet name="SE1" sheetId="1" r:id="rId2"/>
+    <sheet name="SE2" sheetId="3" r:id="rId3"/>
+    <sheet name="SE3" sheetId="2" r:id="rId4"/>
+    <sheet name="DE1" sheetId="4" r:id="rId5"/>
+    <sheet name="Experiments with h" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>total pass. count</t>
   </si>
@@ -175,9 +177,6 @@
     <t>RESOURCE MANAG.</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>DEPOT ALLOCATION</t>
   </si>
   <si>
@@ -191,6 +190,84 @@
   </si>
   <si>
     <t>SCEN2_SUBSCEN 2 ** (REF)</t>
+  </si>
+  <si>
+    <t>real_1_4veh_80cap__init.pickle</t>
+  </si>
+  <si>
+    <t>real_1_4veh_80cap__opt.pickle</t>
+  </si>
+  <si>
+    <t>in-advance pass. count</t>
+  </si>
+  <si>
+    <t>real-time pass. count</t>
+  </si>
+  <si>
+    <t>in-advance tt</t>
+  </si>
+  <si>
+    <t>real-time tt</t>
+  </si>
+  <si>
+    <t>real_dod0.25_dyn_opt.pickle</t>
+  </si>
+  <si>
+    <t>real_dod0.25_stat_opt.pickle</t>
+  </si>
+  <si>
+    <t>real_dod0.5_dyn_opt.pickle</t>
+  </si>
+  <si>
+    <t>real_dod0.5_stat_opt.pickle</t>
+  </si>
+  <si>
+    <t>real_dod0.75_dyn_opt.pickle</t>
+  </si>
+  <si>
+    <t>real_dod0.75_stat_opt.pickle</t>
+  </si>
+  <si>
+    <t>avg. Tt SP</t>
+  </si>
+  <si>
+    <t>avg. Tt RP</t>
+  </si>
+  <si>
+    <t>real_1_clust_1_init.pickle</t>
+  </si>
+  <si>
+    <t>real_1_clust_1_opt.pickle</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>on arc</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>insert o after</t>
+  </si>
+  <si>
+    <t>insert d after</t>
+  </si>
+  <si>
+    <t>TOT MOVES</t>
+  </si>
+  <si>
+    <t>ON ARC</t>
+  </si>
+  <si>
+    <t>IN BETWEEN</t>
+  </si>
+  <si>
+    <t>ADJACENT</t>
   </si>
 </sst>
 </file>
@@ -200,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,14 +298,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -277,8 +346,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,16 +627,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48EE01C-846D-4E35-83A0-6138E9FC60CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -975,7 +1066,7 @@
         <v>32.313333333333333</v>
       </c>
       <c r="K9" s="3">
-        <v>46.360000000000007</v>
+        <v>46.36</v>
       </c>
       <c r="L9" s="3">
         <v>6.8260931563091427</v>
@@ -1183,19 +1274,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E9E064-D934-481E-9A58-2F6DA5CE9F07}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1247,7 +1343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +1431,7 @@
         <v>27.337945008166599</v>
       </c>
       <c r="N4">
-        <v>32.331284584980196</v>
+        <v>32.331284584980203</v>
       </c>
       <c r="O4">
         <v>25.56380434782605</v>
@@ -1346,46 +1442,46 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C5">
-        <v>18346.94999999995</v>
+        <v>23050.469999999899</v>
       </c>
       <c r="D5">
-        <v>44032.14</v>
+        <v>31304.92</v>
       </c>
       <c r="E5">
-        <v>62379.09</v>
+        <v>54355.39</v>
       </c>
       <c r="F5">
-        <v>61.94</v>
+        <v>53.82</v>
       </c>
       <c r="G5">
-        <v>1724.5500000000002</v>
+        <v>2237.15</v>
       </c>
       <c r="H5">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="I5">
         <v>37</v>
       </c>
       <c r="J5">
-        <v>61.3</v>
+        <v>52.42</v>
       </c>
       <c r="K5">
-        <v>78.599999999999994</v>
+        <v>90.6</v>
       </c>
       <c r="L5">
-        <v>17.3978488740991</v>
+        <v>21.641726618705</v>
       </c>
       <c r="M5">
-        <v>43.903315203355099</v>
+        <v>30.776813977389502</v>
       </c>
       <c r="N5">
-        <v>39.757162162162103</v>
+        <v>53.8667567567567</v>
       </c>
       <c r="O5">
-        <v>38.844189189189152</v>
+        <v>36.731891891891898</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1393,46 +1489,46 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C6">
-        <v>19253.069999999949</v>
+        <v>18758.249999999902</v>
       </c>
       <c r="D6">
-        <v>34292.644999999946</v>
+        <v>29201.48</v>
       </c>
       <c r="E6">
-        <v>53545.714999999997</v>
+        <v>47959.73</v>
       </c>
       <c r="F6">
-        <v>53.174999999999997</v>
+        <v>47.48</v>
       </c>
       <c r="G6">
-        <v>1891.82</v>
+        <v>2340.7199999999998</v>
       </c>
       <c r="H6">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="I6">
         <v>37</v>
       </c>
       <c r="J6">
-        <v>50.959999999999994</v>
+        <v>45.78</v>
       </c>
       <c r="K6">
-        <v>111.30499999999999</v>
+        <v>92.45</v>
       </c>
       <c r="L6">
-        <v>17.10871894831595</v>
+        <v>17.1296402877697</v>
       </c>
       <c r="M6">
-        <v>33.848165132836797</v>
+        <v>28.6454162384378</v>
       </c>
       <c r="N6">
-        <v>71.71729729729725</v>
+        <v>56.5164864864864</v>
       </c>
       <c r="O6">
-        <v>39.589324324324252</v>
+        <v>35.932162162162101</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1582,83 +1678,125 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>45</v>
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>654</v>
+      </c>
+      <c r="C11">
+        <v>26316.080000000002</v>
+      </c>
+      <c r="D11">
+        <v>24384.569999999901</v>
+      </c>
+      <c r="E11">
+        <v>50700.65</v>
+      </c>
+      <c r="F11">
+        <v>77.52</v>
+      </c>
+      <c r="G11">
+        <v>744.58</v>
+      </c>
+      <c r="H11">
+        <v>631</v>
+      </c>
+      <c r="I11">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>75.209999999999994</v>
+      </c>
+      <c r="K11">
+        <v>140.97</v>
+      </c>
+      <c r="L11">
+        <v>37.659144215530901</v>
+      </c>
+      <c r="M11">
+        <v>37.552202852614798</v>
+      </c>
+      <c r="N11">
+        <v>111.006956521739</v>
+      </c>
+      <c r="O11">
+        <v>29.962173913043401</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>47</v>
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>654</v>
+      </c>
+      <c r="C12">
+        <v>26591.5</v>
+      </c>
+      <c r="D12">
+        <v>20333.740000000002</v>
+      </c>
+      <c r="E12">
+        <v>46925.24</v>
+      </c>
+      <c r="F12">
+        <v>71.75</v>
+      </c>
+      <c r="G12">
+        <v>867.55</v>
+      </c>
+      <c r="H12">
+        <v>631</v>
+      </c>
+      <c r="I12">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>67.41</v>
+      </c>
+      <c r="K12">
+        <v>190.72</v>
+      </c>
+      <c r="L12">
+        <v>36.332900158478601</v>
+      </c>
+      <c r="M12">
+        <v>31.081648177496</v>
+      </c>
+      <c r="N12">
+        <v>159.36695652173901</v>
+      </c>
+      <c r="O12">
+        <v>31.3573913043478</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>654</v>
-      </c>
-      <c r="C13">
-        <v>9094.6</v>
-      </c>
-      <c r="D13">
-        <v>18703.309999999899</v>
-      </c>
-      <c r="E13">
-        <v>27797.91</v>
-      </c>
-      <c r="F13">
-        <v>42.5</v>
-      </c>
-      <c r="G13">
-        <v>1328.54</v>
-      </c>
-      <c r="H13">
-        <v>631</v>
-      </c>
-      <c r="I13">
-        <v>23</v>
-      </c>
-      <c r="J13">
-        <v>42.03</v>
-      </c>
-      <c r="K13">
-        <v>55.41</v>
-      </c>
-      <c r="L13">
-        <v>13.458605388272501</v>
-      </c>
-      <c r="M13">
-        <v>28.5754041204437</v>
-      </c>
-      <c r="N13">
-        <v>26.183478260869499</v>
-      </c>
-      <c r="O13">
-        <v>29.227391304347801</v>
+      <c r="A13" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>654</v>
       </c>
-      <c r="C14" s="5">
-        <v>8759.0999999999894</v>
-      </c>
-      <c r="D14" s="5">
-        <v>18317.879999999899</v>
+      <c r="C14">
+        <v>9094.6</v>
+      </c>
+      <c r="D14">
+        <v>18703.309999999899</v>
       </c>
       <c r="E14">
-        <v>27076.98</v>
+        <v>27797.91</v>
       </c>
       <c r="F14">
-        <v>41.4</v>
+        <v>42.5</v>
       </c>
       <c r="G14">
-        <v>1335.34</v>
+        <v>1328.54</v>
       </c>
       <c r="H14">
         <v>631</v>
@@ -1667,45 +1805,45 @@
         <v>23</v>
       </c>
       <c r="J14">
-        <v>40.85</v>
+        <v>42.03</v>
       </c>
       <c r="K14">
-        <v>56.68</v>
+        <v>55.41</v>
       </c>
       <c r="L14">
-        <v>12.9269096671949</v>
+        <v>13.458605388272501</v>
       </c>
       <c r="M14">
-        <v>27.918462757527699</v>
+        <v>28.5754041204437</v>
       </c>
       <c r="N14">
         <v>26.183478260869499</v>
       </c>
       <c r="O14">
-        <v>30.492608695652098</v>
+        <v>29.227391304347801</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>654</v>
       </c>
-      <c r="C15">
-        <v>10681.43</v>
-      </c>
-      <c r="D15">
-        <v>18685.689999999999</v>
+      <c r="C15" s="5">
+        <v>8759.0999999999894</v>
+      </c>
+      <c r="D15" s="5">
+        <v>18317.879999999899</v>
       </c>
       <c r="E15">
-        <v>29367.119999999999</v>
+        <v>27076.98</v>
       </c>
       <c r="F15">
-        <v>44.9</v>
+        <v>41.4</v>
       </c>
       <c r="G15">
-        <v>1097.3399999999999</v>
+        <v>1335.34</v>
       </c>
       <c r="H15">
         <v>631</v>
@@ -1714,45 +1852,45 @@
         <v>23</v>
       </c>
       <c r="J15">
-        <v>44.67</v>
+        <v>40.85</v>
       </c>
       <c r="K15">
-        <v>51.36</v>
+        <v>56.68</v>
       </c>
       <c r="L15">
-        <v>16.002551505546698</v>
+        <v>12.9269096671949</v>
       </c>
       <c r="M15">
-        <v>28.665911251980901</v>
+        <v>27.918462757527699</v>
       </c>
       <c r="N15">
-        <v>25.383478260869499</v>
+        <v>26.183478260869499</v>
       </c>
       <c r="O15">
-        <v>25.978260869565201</v>
+        <v>30.492608695652098</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>654</v>
       </c>
-      <c r="C16" s="5">
-        <v>9476.5499999999902</v>
-      </c>
-      <c r="D16" s="5">
-        <v>18118.009999999998</v>
+      <c r="C16">
+        <v>10681.43</v>
+      </c>
+      <c r="D16">
+        <v>18685.689999999999</v>
       </c>
       <c r="E16">
-        <v>27594.560000000001</v>
+        <v>29367.119999999999</v>
       </c>
       <c r="F16">
-        <v>42.19</v>
+        <v>44.9</v>
       </c>
       <c r="G16">
-        <v>1102.1199999999999</v>
+        <v>1097.3399999999999</v>
       </c>
       <c r="H16">
         <v>631</v>
@@ -1761,45 +1899,45 @@
         <v>23</v>
       </c>
       <c r="J16">
-        <v>41.91</v>
+        <v>44.67</v>
       </c>
       <c r="K16">
-        <v>50.02</v>
+        <v>51.36</v>
       </c>
       <c r="L16">
-        <v>14.1842630744849</v>
+        <v>16.002551505546698</v>
       </c>
       <c r="M16">
-        <v>27.723914421553001</v>
+        <v>28.665911251980901</v>
       </c>
       <c r="N16">
-        <v>22.881739130434699</v>
+        <v>25.383478260869499</v>
       </c>
       <c r="O16">
-        <v>27.139999999999901</v>
+        <v>25.978260869565201</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>654</v>
       </c>
-      <c r="C17">
-        <v>8772.93</v>
-      </c>
-      <c r="D17">
-        <v>20150.139999999901</v>
+      <c r="C17" s="5">
+        <v>9476.5499999999902</v>
+      </c>
+      <c r="D17" s="5">
+        <v>18118.009999999998</v>
       </c>
       <c r="E17">
-        <v>28923.07</v>
+        <v>27594.560000000001</v>
       </c>
       <c r="F17">
-        <v>44.22</v>
+        <v>42.19</v>
       </c>
       <c r="G17">
-        <v>1434.06</v>
+        <v>1102.1199999999999</v>
       </c>
       <c r="H17">
         <v>631</v>
@@ -1808,45 +1946,45 @@
         <v>23</v>
       </c>
       <c r="J17">
-        <v>43.26</v>
+        <v>41.91</v>
       </c>
       <c r="K17">
-        <v>70.63</v>
+        <v>50.02</v>
       </c>
       <c r="L17">
-        <v>12.662852614896901</v>
+        <v>14.1842630744849</v>
       </c>
       <c r="M17">
-        <v>30.599397781299501</v>
+        <v>27.723914421553001</v>
       </c>
       <c r="N17">
-        <v>34.029130434782601</v>
+        <v>22.881739130434699</v>
       </c>
       <c r="O17">
-        <v>36.605217391304301</v>
+        <v>27.139999999999901</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>654</v>
       </c>
-      <c r="C18" s="5">
-        <v>8535.44</v>
-      </c>
-      <c r="D18" s="5">
-        <v>19378</v>
+      <c r="C18">
+        <v>8772.93</v>
+      </c>
+      <c r="D18">
+        <v>20150.139999999901</v>
       </c>
       <c r="E18">
-        <v>27913.439999999999</v>
+        <v>28923.07</v>
       </c>
       <c r="F18">
-        <v>42.68</v>
+        <v>44.22</v>
       </c>
       <c r="G18">
-        <v>1431.08</v>
+        <v>1434.06</v>
       </c>
       <c r="H18">
         <v>631</v>
@@ -1855,16 +1993,16 @@
         <v>23</v>
       </c>
       <c r="J18">
-        <v>41.66</v>
+        <v>43.26</v>
       </c>
       <c r="K18">
         <v>70.63</v>
       </c>
       <c r="L18">
-        <v>12.286481774960301</v>
+        <v>12.662852614896901</v>
       </c>
       <c r="M18">
-        <v>29.3757210776545</v>
+        <v>30.599397781299501</v>
       </c>
       <c r="N18">
         <v>34.029130434782601</v>
@@ -1874,31 +2012,73 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>46</v>
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>654</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8535.44</v>
+      </c>
+      <c r="D19" s="5">
+        <v>19378</v>
+      </c>
+      <c r="E19">
+        <v>27913.439999999999</v>
+      </c>
+      <c r="F19">
+        <v>42.68</v>
+      </c>
+      <c r="G19">
+        <v>1431.08</v>
+      </c>
+      <c r="H19">
+        <v>631</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>41.66</v>
+      </c>
+      <c r="K19">
+        <v>70.63</v>
+      </c>
+      <c r="L19">
+        <v>12.286481774960301</v>
+      </c>
+      <c r="M19">
+        <v>29.3757210776545</v>
+      </c>
+      <c r="N19">
+        <v>34.029130434782601</v>
+      </c>
+      <c r="O19">
+        <v>36.605217391304301</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>654</v>
       </c>
       <c r="C20">
-        <v>8500.5</v>
+        <v>11960.37</v>
       </c>
       <c r="D20">
-        <v>19609.48</v>
+        <v>21657.16</v>
       </c>
       <c r="E20">
-        <v>28109.98</v>
+        <v>33617.53</v>
       </c>
       <c r="F20">
-        <v>42.98</v>
+        <v>51.4</v>
       </c>
       <c r="G20">
-        <v>1272.1199999999999</v>
+        <v>1805.16</v>
       </c>
       <c r="H20">
         <v>631</v>
@@ -1907,45 +2087,45 @@
         <v>23</v>
       </c>
       <c r="J20">
-        <v>42.89</v>
+        <v>50.42</v>
       </c>
       <c r="K20">
-        <v>45.54</v>
+        <v>78.3</v>
       </c>
       <c r="L20">
-        <v>12.706592709984101</v>
+        <v>17.089286850000001</v>
       </c>
       <c r="M20">
-        <v>30.181695721077599</v>
+        <v>33.333438989999998</v>
       </c>
       <c r="N20">
-        <v>20.9843478260869</v>
+        <v>51.17521739</v>
       </c>
       <c r="O20">
-        <v>24.557826086956499</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>654</v>
       </c>
       <c r="C21">
-        <v>8624.42</v>
+        <v>10347.120000000001</v>
       </c>
       <c r="D21">
-        <v>18736.84</v>
+        <v>21201</v>
       </c>
       <c r="E21">
-        <v>27361.26</v>
+        <v>31548.12</v>
       </c>
       <c r="F21">
-        <v>41.84</v>
+        <v>48.24</v>
       </c>
       <c r="G21">
-        <v>1285.1500000000001</v>
+        <v>1734.91</v>
       </c>
       <c r="H21">
         <v>631</v>
@@ -1954,92 +2134,50 @@
         <v>23</v>
       </c>
       <c r="J21">
-        <v>41.59</v>
+        <v>47.28</v>
       </c>
       <c r="K21">
-        <v>48.59</v>
+        <v>74.56</v>
       </c>
       <c r="L21">
-        <v>12.7864976228209</v>
+        <v>14.684580029999999</v>
       </c>
       <c r="M21">
-        <v>28.8039619651347</v>
+        <v>32.594833600000001</v>
       </c>
       <c r="N21">
-        <v>24.18</v>
+        <v>47.006521739999997</v>
       </c>
       <c r="O21">
-        <v>24.414782608695599</v>
+        <v>27.55043478</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22">
-        <v>654</v>
-      </c>
-      <c r="C22">
-        <v>7209.3099999999904</v>
-      </c>
-      <c r="D22">
-        <v>20763.77</v>
-      </c>
-      <c r="E22">
-        <v>27973.08</v>
-      </c>
-      <c r="F22">
-        <v>42.77</v>
-      </c>
-      <c r="G22">
-        <v>1242.22</v>
-      </c>
-      <c r="H22">
-        <v>631</v>
-      </c>
-      <c r="I22">
-        <v>23</v>
-      </c>
-      <c r="J22">
-        <v>42.41</v>
-      </c>
-      <c r="K22">
-        <v>52.76</v>
-      </c>
-      <c r="L22">
-        <v>10.802741679873201</v>
-      </c>
-      <c r="M22">
-        <v>31.6053565768621</v>
-      </c>
-      <c r="N22">
-        <v>17.077391304347799</v>
-      </c>
-      <c r="O22">
-        <v>35.686521739130399</v>
+      <c r="A22" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>654</v>
       </c>
       <c r="C23">
-        <v>7460.0499999999902</v>
+        <v>8500.5</v>
       </c>
       <c r="D23">
-        <v>19125.75</v>
+        <v>19609.48</v>
       </c>
       <c r="E23">
-        <v>26585.8</v>
+        <v>28109.98</v>
       </c>
       <c r="F23">
-        <v>40.65</v>
+        <v>42.98</v>
       </c>
       <c r="G23">
-        <v>1226.21</v>
+        <v>1272.1199999999999</v>
       </c>
       <c r="H23">
         <v>631</v>
@@ -2048,38 +2186,179 @@
         <v>23</v>
       </c>
       <c r="J23">
+        <v>42.89</v>
+      </c>
+      <c r="K23">
+        <v>45.54</v>
+      </c>
+      <c r="L23">
+        <v>12.706592709984101</v>
+      </c>
+      <c r="M23">
+        <v>30.181695721077599</v>
+      </c>
+      <c r="N23">
+        <v>20.9843478260869</v>
+      </c>
+      <c r="O23">
+        <v>24.557826086956499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>654</v>
+      </c>
+      <c r="C24">
+        <v>8624.42</v>
+      </c>
+      <c r="D24">
+        <v>18736.84</v>
+      </c>
+      <c r="E24">
+        <v>27361.26</v>
+      </c>
+      <c r="F24">
+        <v>41.84</v>
+      </c>
+      <c r="G24">
+        <v>1285.1500000000001</v>
+      </c>
+      <c r="H24">
+        <v>631</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>41.59</v>
+      </c>
+      <c r="K24">
+        <v>48.59</v>
+      </c>
+      <c r="L24">
+        <v>12.7864976228209</v>
+      </c>
+      <c r="M24">
+        <v>28.8039619651347</v>
+      </c>
+      <c r="N24">
+        <v>24.18</v>
+      </c>
+      <c r="O24">
+        <v>24.414782608695599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>654</v>
+      </c>
+      <c r="C25">
+        <v>7209.3099999999904</v>
+      </c>
+      <c r="D25">
+        <v>20763.77</v>
+      </c>
+      <c r="E25">
+        <v>27973.08</v>
+      </c>
+      <c r="F25">
+        <v>42.77</v>
+      </c>
+      <c r="G25">
+        <v>1242.22</v>
+      </c>
+      <c r="H25">
+        <v>631</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>42.41</v>
+      </c>
+      <c r="K25">
+        <v>52.76</v>
+      </c>
+      <c r="L25">
+        <v>10.802741679873201</v>
+      </c>
+      <c r="M25">
+        <v>31.6053565768621</v>
+      </c>
+      <c r="N25">
+        <v>17.077391304347799</v>
+      </c>
+      <c r="O25">
+        <v>35.686521739130399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>654</v>
+      </c>
+      <c r="C26">
+        <v>7460.0499999999902</v>
+      </c>
+      <c r="D26">
+        <v>19125.75</v>
+      </c>
+      <c r="E26">
+        <v>26585.8</v>
+      </c>
+      <c r="F26">
+        <v>40.65</v>
+      </c>
+      <c r="G26">
+        <v>1226.21</v>
+      </c>
+      <c r="H26">
+        <v>631</v>
+      </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
         <v>40.24</v>
       </c>
-      <c r="K23">
+      <c r="K26">
         <v>52.05</v>
       </c>
-      <c r="L23">
+      <c r="L26">
         <v>11.0613787638668</v>
       </c>
-      <c r="M23">
+      <c r="M26">
         <v>29.174057052297901</v>
       </c>
-      <c r="N23">
+      <c r="N26">
         <v>20.883478260869499</v>
       </c>
-      <c r="O23">
+      <c r="O26">
         <v>31.170434782608599</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D4EC3-BC8A-48D2-B123-9B09F8FA121B}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,9 +2368,12 @@
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2141,54 +2423,54 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C2" s="3">
-        <v>9749.24</v>
+        <v>9416.4649999999947</v>
       </c>
       <c r="D2" s="3">
-        <v>20093.97</v>
+        <v>20367.834999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>29843.21</v>
+        <v>29784.3</v>
       </c>
       <c r="F2" s="3">
-        <v>41.51</v>
+        <v>41.484999999999999</v>
       </c>
       <c r="G2" s="3">
-        <v>1347.2</v>
+        <v>1343.74</v>
       </c>
       <c r="H2" s="3">
-        <v>667</v>
+        <v>667.5</v>
       </c>
       <c r="I2" s="3">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="J2" s="3">
-        <v>40.479999999999997</v>
+        <v>40.614999999999995</v>
       </c>
       <c r="K2" s="3">
-        <v>54.63</v>
+        <v>52.865000000000002</v>
       </c>
       <c r="L2" s="3">
-        <v>12.795652173913</v>
+        <v>12.426703332465451</v>
       </c>
       <c r="M2" s="3">
-        <v>27.687961019490199</v>
+        <v>28.190582306152251</v>
       </c>
       <c r="N2" s="3">
-        <v>23.356538461538399</v>
+        <v>22.179391679748747</v>
       </c>
       <c r="O2" s="3">
-        <v>31.271153846153801</v>
+        <v>30.682923861852402</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2">
         <v>664.5</v>
@@ -2235,65 +2517,841 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C4" s="3">
-        <v>8351.44</v>
+        <v>7766.6350000000002</v>
       </c>
       <c r="D4" s="3">
-        <v>17969.97</v>
+        <v>17662.66499999995</v>
       </c>
       <c r="E4" s="3">
-        <v>26321.41</v>
+        <v>25429.3</v>
       </c>
       <c r="F4" s="3">
-        <v>40.31</v>
+        <v>38.83</v>
       </c>
       <c r="G4" s="3">
-        <v>1250.1300000000001</v>
+        <v>1169.6500000000001</v>
       </c>
       <c r="H4" s="3">
-        <v>643</v>
+        <v>645.5</v>
       </c>
       <c r="I4" s="3">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J4" s="3">
-        <v>39.869999999999997</v>
+        <v>38.534999999999997</v>
       </c>
       <c r="K4" s="3">
-        <v>68.81</v>
+        <v>58.480000000000004</v>
       </c>
       <c r="L4" s="3">
-        <v>12.411881804043499</v>
+        <v>11.62856435881185</v>
       </c>
       <c r="M4" s="3">
-        <v>27.453374805598699</v>
+        <v>26.90270592131785</v>
       </c>
       <c r="N4" s="3">
-        <v>37.06</v>
+        <v>27.091666666666651</v>
       </c>
       <c r="O4" s="3">
-        <v>31.744999999999902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>31.385833333333252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DEF2C7-DC56-4CA7-89B8-DF60D0BD197C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3">
+        <v>654</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12159.8299999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17442.059999999899</v>
+      </c>
+      <c r="E2" s="3">
+        <v>29601.89</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45.26</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1594.36</v>
+      </c>
+      <c r="H2" s="3">
+        <v>631</v>
+      </c>
+      <c r="I2" s="3">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3">
+        <v>44.57</v>
+      </c>
+      <c r="K2" s="3">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="L2" s="3">
+        <v>17.880792393026901</v>
+      </c>
+      <c r="M2" s="3">
+        <v>26.692361331220201</v>
+      </c>
+      <c r="N2" s="3">
+        <v>38.132608695652102</v>
+      </c>
+      <c r="O2" s="3">
+        <v>26.051304347826001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>491</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>163</v>
+      </c>
+      <c r="R2" s="3">
+        <v>20149.97</v>
+      </c>
+      <c r="S2" s="3">
+        <v>9451.92</v>
+      </c>
+      <c r="T2">
+        <f>R2/P2</f>
+        <v>41.038635437881879</v>
+      </c>
+      <c r="U2">
+        <f>S2/Q2</f>
+        <v>57.98723926380368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3">
+        <v>491</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5238.78</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13147.99</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18386.77</v>
+      </c>
+      <c r="F3" s="3">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1156.52</v>
+      </c>
+      <c r="H3" s="3">
+        <v>476</v>
+      </c>
+      <c r="I3" s="3">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3">
+        <v>37.04</v>
+      </c>
+      <c r="K3" s="3">
+        <v>50.24</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10.1304201680672</v>
+      </c>
+      <c r="M3" s="3">
+        <v>26.914117647058799</v>
+      </c>
+      <c r="N3" s="3">
+        <v>27.779999999999902</v>
+      </c>
+      <c r="O3" s="3">
+        <v>22.457999999999899</v>
+      </c>
+      <c r="P3" s="3">
+        <v>491</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>18386.77</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3">
+        <v>654</v>
+      </c>
+      <c r="C4" s="3">
+        <v>16732.05</v>
+      </c>
+      <c r="D4" s="3">
+        <v>17408.05</v>
+      </c>
+      <c r="E4" s="3">
+        <v>34140.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>52.2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1580.45</v>
+      </c>
+      <c r="H4" s="3">
+        <v>631</v>
+      </c>
+      <c r="I4" s="3">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3">
+        <v>51.94</v>
+      </c>
+      <c r="K4" s="3">
+        <v>59.45</v>
+      </c>
+      <c r="L4" s="3">
+        <v>25.243359746434201</v>
+      </c>
+      <c r="M4" s="3">
+        <v>26.694532488114099</v>
+      </c>
+      <c r="N4" s="3">
+        <v>34.934347826086899</v>
+      </c>
+      <c r="O4" s="3">
+        <v>24.513043478260801</v>
+      </c>
+      <c r="P4" s="3">
+        <v>327</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>327</v>
+      </c>
+      <c r="R4" s="3">
+        <v>14026.7699999999</v>
+      </c>
+      <c r="S4" s="3">
+        <v>20113.330000000002</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T6" si="0">R4/P4</f>
+        <v>42.89532110091713</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U6" si="1">S4/Q4</f>
+        <v>61.508654434250772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3">
+        <v>327</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3403.05</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8262.7199999999993</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11665.77</v>
+      </c>
+      <c r="F5" s="3">
+        <v>35.68</v>
+      </c>
+      <c r="G5" s="3">
+        <v>988.7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>316</v>
+      </c>
+      <c r="I5" s="3">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="K5" s="3">
+        <v>41.39</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10.069145569620201</v>
+      </c>
+      <c r="M5" s="3">
+        <v>25.4071202531645</v>
+      </c>
+      <c r="N5" s="3">
+        <v>20.109090909090899</v>
+      </c>
+      <c r="O5" s="3">
+        <v>21.2790909090909</v>
+      </c>
+      <c r="P5" s="3">
+        <v>327</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>11665.77</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3">
+        <v>654</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20824.32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16874.609999999899</v>
+      </c>
+      <c r="E6" s="3">
+        <v>37698.93</v>
+      </c>
+      <c r="F6" s="3">
+        <v>57.64</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1622.08</v>
+      </c>
+      <c r="H6" s="3">
+        <v>631</v>
+      </c>
+      <c r="I6" s="3">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3">
+        <v>57.16</v>
+      </c>
+      <c r="K6" s="3">
+        <v>71.02</v>
+      </c>
+      <c r="L6" s="3">
+        <v>31.8601584786053</v>
+      </c>
+      <c r="M6" s="3">
+        <v>25.296053882725801</v>
+      </c>
+      <c r="N6" s="3">
+        <v>31.328695652173899</v>
+      </c>
+      <c r="O6" s="3">
+        <v>39.686956521739098</v>
+      </c>
+      <c r="P6" s="3">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>490</v>
+      </c>
+      <c r="R6" s="3">
+        <v>9387.84</v>
+      </c>
+      <c r="S6" s="3">
+        <v>28311.09</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>57.242926829268292</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>57.777734693877548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3">
+        <v>164</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1276.0999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4032.72</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5308.82</v>
+      </c>
+      <c r="F7" s="3">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="G7" s="3">
+        <v>915.99</v>
+      </c>
+      <c r="H7" s="3">
+        <v>161</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>32.07</v>
+      </c>
+      <c r="K7" s="3">
+        <v>48.43</v>
+      </c>
+      <c r="L7" s="3">
+        <v>7.4158385093167603</v>
+      </c>
+      <c r="M7" s="3">
+        <v>24.655776397515499</v>
+      </c>
+      <c r="N7" s="3">
+        <v>27.383333333333301</v>
+      </c>
+      <c r="O7" s="3">
+        <v>21.046666666666599</v>
+      </c>
+      <c r="P7" s="3">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>5308.82</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B9619D-D46D-49DA-97DB-62EFE9D2A392}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>247</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>456</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <f>B3</f>
+        <v>0.35745614035087719</v>
+      </c>
+      <c r="K2" s="8">
+        <f>SUM(E3:F3)</f>
+        <v>0.57675438596491224</v>
+      </c>
+      <c r="L2" s="8">
+        <f>SUM(C3:D3)</f>
+        <v>6.7982456140350866E-2</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M7" si="0">SUM(J2:L3)</f>
+        <v>1.0021929824561402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <f>B2/$G$2</f>
+        <v>0.35745614035087719</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:F3" si="1">C2/$G$2</f>
+        <v>2.1929824561403508E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6052631578947366E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0043478260869565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>148</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>230</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" ref="J4:J8" si="2">B5</f>
+        <v>0.19130434782608696</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K8" si="3">SUM(E5:F5)</f>
+        <v>0.71304347826086956</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L6" si="4">SUM(C5:D5)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0043478260869565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <f>B4/$G$4</f>
+        <v>0.19130434782608696</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:F5" si="5">C4/$G$4</f>
+        <v>3.4782608695652174E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="5"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.64347826086956517</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="5"/>
+        <v>6.9565217391304349E-2</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>122</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="2"/>
+        <v>8.1967213114754092E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.74590163934426224</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="4"/>
+        <v>0.18032786885245902</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0081967213114753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <f>B6/$G$6</f>
+        <v>8.1967213114754092E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:F7" si="6">C6/$G$6</f>
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="6"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="6"/>
+        <v>0.65573770491803274</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="6"/>
+        <v>9.0163934426229511E-2</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0038888888888891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="3"/>
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="M8" s="8">
+        <f>SUM(J8:L9)</f>
+        <v>1.0038888888888891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <f>B8/$G$8</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:F9" si="7">C8/$G$8</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="7"/>
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="7"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>